--- a/data/trans_dic/P16B17-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B17-Edad-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyas hormonas para la menopausia fueron recetadas (tasa de respuesta: 96,67%)</t>
+          <t>Mujeres cuyo tratamiento hormonal consumido para la menopausia fue recetado por el médico (tasa de respuesta: 96,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -913,7 +913,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyas hormonas para la menopausia fueron recetadas (tasa de respuesta: 96,67%)</t>
+          <t>Mujeres cuyo tratamiento hormonal consumido para la menopausia fue recetado por el médico (tasa de respuesta: 96,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
